--- a/biology/Botanique/Hypericaceae/Hypericaceae.xlsx
+++ b/biology/Botanique/Hypericaceae/Hypericaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Hypericaceae (les Hypéricacées) sont une famille de plantes à fleurs dicotylédones de l'ordre des Malpighiales. Elles étaient auparavant incluses dans les Clusiacées mais la classification phylogénétique APG II (2003)[2], la classification phylogénétique APG III (2009)[3] et la classification phylogénétique APG IV (2016)[4] acceptent cette famille qui comprend environ 560 espèces réparties en 6 à 9 genres.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Hypericaceae (les Hypéricacées) sont une famille de plantes à fleurs dicotylédones de l'ordre des Malpighiales. Elles étaient auparavant incluses dans les Clusiacées mais la classification phylogénétique APG II (2003), la classification phylogénétique APG III (2009) et la classification phylogénétique APG IV (2016) acceptent cette famille qui comprend environ 560 espèces réparties en 6 à 9 genres.
 Ce sont des arbustes ou des plantes herbacées, à feuilles opposées simples et sans stipules, à marge entière, qui se retrouvent sur tous les continents.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Hypericum qui, selon Fournier, est le nom grec de la plante composé de hypo, presque, et éreïke, Bruyère[5]. Selon Christenhusz et ses collaborateurs, Hypericum, dérivé du grec υπέρ / hyper, au-dessus, et εικών / ikon, image ou icône, fait référence au fait que l'on accrochait cette plante au-dessus d'une image dans le but d'en éloigner les mauvais esprits[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Hypericum qui, selon Fournier, est le nom grec de la plante composé de hypo, presque, et éreïke, Bruyère. Selon Christenhusz et ses collaborateurs, Hypericum, dérivé du grec υπέρ / hyper, au-dessus, et εικών / ikon, image ou icône, fait référence au fait que l'on accrochait cette plante au-dessus d'une image dans le but d'en éloigner les mauvais esprits.
 </t>
         </is>
       </c>
@@ -545,10 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Au niveau de l'appareil végétatif, cette famille est représentée par des plantes herbacées annuelles ou vivaces, ou des plantes ligneuses (sous-arbrisseaux, arbrisseaux). Les feuilles des plantes sont simples et entières, le plus souvent opposées. L'appareil sécréteur s'observe sous forme de poches translucides au niveau des feuilles de certaines espèces, et de massifs sécréteurs constituant des points noirs au niveau des feuilles et du périanthe[7].
-Appareil reproducteur
-Les fleurs sont groupées en inflorescences constituant le plus souvent une cyme corymbiforme. Généralement jaunes, actinomorphes et hermaphrodites, elles sont dotées d'un périanthe constitué d'un calice à 5 sépales imbriqués généralement persistants, et d'une corolle constituée de 5 pétales souvent ponctuées de noir. L'androcée montre en général de nombreuses étamines (androcée méristémone) à long filet, réunies à la base en 3 (Hypericum) à 5 (Vismia) faisceaux. Le gynécée et constitué par 3 (Hypericum) ou 5 (Vismia) carpelles soudés en un ovaire supère. Le fruit est le plus souvent une capsule septicide, parfois une drupe ou une baie[8].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au niveau de l'appareil végétatif, cette famille est représentée par des plantes herbacées annuelles ou vivaces, ou des plantes ligneuses (sous-arbrisseaux, arbrisseaux). Les feuilles des plantes sont simples et entières, le plus souvent opposées. L'appareil sécréteur s'observe sous forme de poches translucides au niveau des feuilles de certaines espèces, et de massifs sécréteurs constituant des points noirs au niveau des feuilles et du périanthe.
 </t>
         </is>
       </c>
@@ -574,14 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Classification</t>
+          <t>Caractères botaniques</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">La flore de Fournier de 1947 reconnaissait cette famille[5].
-La classification classique de Cronquist (1981)[9] inclut ces plantes dans les Clusiacées, dans l'ordre des Theales.
-La classification phylogénétique APG III (2009)[3] et la classification phylogénétique APG IV (2016)[4] situent cette famille dans l'ordre des Malpighiales.
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont groupées en inflorescences constituant le plus souvent une cyme corymbiforme. Généralement jaunes, actinomorphes et hermaphrodites, elles sont dotées d'un périanthe constitué d'un calice à 5 sépales imbriqués généralement persistants, et d'une corolle constituée de 5 pétales souvent ponctuées de noir. L'androcée montre en général de nombreuses étamines (androcée méristémone) à long filet, réunies à la base en 3 (Hypericum) à 5 (Vismia) faisceaux. Le gynécée et constitué par 3 (Hypericum) ou 5 (Vismia) carpelles soudés en un ovaire supère. Le fruit est le plus souvent une capsule septicide, parfois une drupe ou une baie.
 </t>
         </is>
       </c>
@@ -607,12 +628,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La flore de Fournier de 1947 reconnaissait cette famille.
+La classification classique de Cronquist (1981) inclut ces plantes dans les Clusiacées, dans l'ordre des Theales.
+La classification phylogénétique APG III (2009) et la classification phylogénétique APG IV (2016) situent cette famille dans l'ordre des Malpighiales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hypericaceae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypericaceae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (8 mai 2021)[10] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (8 mai 2021) :
 Cratoxylum Blume
 Eliea Cambess.
 Harungana Lamarck (espèces: Harungana madagascariensis,...)
@@ -623,7 +681,7 @@
 Thornea Breedlove &amp; E.M. McClint.
 Triadenum Raf.
 Vismia Vand.
-Selon NCBI  (11 décembre 2016)[11] :
+Selon NCBI  (11 décembre 2016) :
 tribu des Cratoxyleae
 Cratoxylum
 Eliea
@@ -634,7 +692,7 @@
 Harungana
 Psorospermum
 Vismia
-Selon ITIS      (8 mai 2021)[12] :
+Selon ITIS      (8 mai 2021) :
 Hypericum L.
 Triadenum Raf.
 Vismia Vand.</t>
